--- a/Data/raw/Statistics project LMU_tomb parameters_Irene Hoegner_new.xlsx
+++ b/Data/raw/Statistics project LMU_tomb parameters_Irene Hoegner_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ire/Desktop/Statistics project LMU_WiSe2025,26_Elateia and Amfissa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhdang/Library/Mobile Documents/com~apple~CloudDocs/UNI 5/Project/Advanced Project/Data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49FF4AD1-3072-0740-8DA3-1BFEEC836E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F945C56D-5465-FF48-9419-228CEC54F249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1880" windowWidth="19620" windowHeight="16240" xr2:uid="{402E0CF4-684A-E34D-B8B6-AB795601143F}"/>
   </bookViews>
@@ -314,7 +314,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,7 +652,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,8 +793,8 @@
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <f>C4-D10</f>
-        <v>16</v>
+        <f>C4-D4</f>
+        <v>21</v>
       </c>
       <c r="F4" s="5">
         <v>6</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="N4" s="14">
         <f>K4/E4</f>
-        <v>0.375</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
